--- a/medicine/Enfance/Haruo_Yamashita/Haruo_Yamashita.xlsx
+++ b/medicine/Enfance/Haruo_Yamashita/Haruo_Yamashita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haruo Yamashita (Nom : 山下 (やました) - Prénom : 明生 (はるお)) est un auteur japonais de livres pour enfants, né le 11 mars 1937 à Tokyo. 
 Il est élevé à l'île de Noumi dans la mer intérieure de Seto, dans la préfecture d'Hiroshima. Après avoir été diplômé de l'école secondaire préfectorale d'Okinari d'Hiroshima et d'un cours de premier cycle à la faculté d'études françaises de l'université de Kyoto , il a déménagé à Tokyo
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comme auteur
 1981 : Kôbô-Daishi, le poisson qui visita mon grenier
